--- a/pro1/resultados.xlsx
+++ b/pro1/resultados.xlsx
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.596886137139406</v>
+        <v>2.911111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/pro1/resultados.xlsx
+++ b/pro1/resultados.xlsx
@@ -494,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1532098765432099</v>
+        <v>4.678816519536223E-310</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.911111111111111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pro1/resultados.xlsx
+++ b/pro1/resultados.xlsx
@@ -494,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.678816519536223E-310</v>
+        <v>0.1532098765432099</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.596886137139406</v>
       </c>
     </row>
   </sheetData>
